--- a/Assets/KYG/ExcelImporter/playerStatKYG.xlsx
+++ b/Assets/KYG/ExcelImporter/playerStatKYG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>playerHp</t>
   </si>
@@ -32,17 +32,24 @@
   <si>
     <t>maxExp</t>
   </si>
+  <si>
+    <t>maxLv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -64,11 +71,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -285,125 +295,136 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="10.13"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="3" width="11.13"/>
+    <col customWidth="1" min="4" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="12.75"/>
+    <col customWidth="1" min="6" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>100.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>100.0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>10.0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>100.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>50.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>150.0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>150.0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>20.0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>105.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>100.0</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>200.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>200.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>30.0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>110.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>250.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>250.0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>40.0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>115.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>200.0</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>300.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>300.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>50.0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>120.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>250.0</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>350.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>350.0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>60.0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>125.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>300.0</v>
       </c>
     </row>
